--- a/data/crops/rothc_support/annual_crops_rothc_scenarios_rainfed.xlsx
+++ b/data/crops/rothc_support/annual_crops_rothc_scenarios_rainfed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldwildlifefund-my.sharepoint.com/personal/cristobal_loyola_wwfus_org/Documents/Documents/203. Python projects/SBTN_Test/data/crops/rothc_support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{170725B8-9B34-4153-8604-E86F3A22CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7848B052-2DA9-4B94-B605-BE0EE50BBF52}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{170725B8-9B34-4153-8604-E86F3A22CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB114950-BF2F-40A4-9735-54DFCD26AA29}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6F94B64D-243B-49DA-AE87-045B34BFAB0F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="spam_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenarios!$A$1:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">spam_data!$A$1:$F$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="432">
   <si>
     <t>crop_name</t>
   </si>
@@ -212,9 +212,6 @@
     <t>../data/land_use/lu_Rainfed_Sugarbeet.tif</t>
   </si>
   <si>
-    <t>../data/land_use/lu_Rainfed_Sugarcane.tif</t>
-  </si>
-  <si>
     <t>../data/land_use/lu_Rainfed_Sunflower.tif</t>
   </si>
   <si>
@@ -1175,12 +1172,6 @@
     <t>../data/crops/rothc_support/Soybean_rf_pc_monthly.tif</t>
   </si>
   <si>
-    <t>../data/crops/rothc_support/Sugarcane_rf_pet_monthly.tif</t>
-  </si>
-  <si>
-    <t>../data/crops/rothc_support/Sugarcane_rf_pc_monthly.tif</t>
-  </si>
-  <si>
     <t>../data/crops/rothc_support/Sunflower_rf_pet_monthly.tif</t>
   </si>
   <si>
@@ -1241,9 +1232,6 @@
     <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUGB_I.tif</t>
   </si>
   <si>
-    <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUGC_I.tif</t>
-  </si>
-  <si>
     <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUNF_I.tif</t>
   </si>
   <si>
@@ -1289,9 +1277,6 @@
     <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUGB_R.tif</t>
   </si>
   <si>
-    <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUGC_R.tif</t>
-  </si>
-  <si>
     <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUNF_R.tif</t>
   </si>
   <si>
@@ -1335,9 +1320,6 @@
   </si>
   <si>
     <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUGB_A.tif</t>
-  </si>
-  <si>
-    <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUGC_A.tif</t>
   </si>
   <si>
     <t>../data/crops/spam2020V2r0_global_yield/spam2020_V2r0_global_Y_SUNF_A.tif</t>
@@ -1746,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1821CC5-2977-4A1A-B60B-8C004F05C4AF}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1772,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1840,20 +1822,20 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G22" si="0">+"RothC results for year 2030 for "&amp;A2&amp;"_"&amp;D2&amp;" in ton C/ha"</f>
+        <f t="shared" ref="G2:G21" si="0">+"RothC results for year 2030 for "&amp;A2&amp;"_"&amp;D2&amp;" in ton C/ha"</f>
         <v>RothC results for year 2030 for Barley_rf_ron in ton C/ha</v>
       </c>
       <c r="H2" t="s">
         <v>42</v>
       </c>
       <c r="I2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" t="s">
         <v>361</v>
-      </c>
-      <c r="J2" t="s">
-        <v>362</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -1865,16 +1847,16 @@
         <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -1894,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -1904,10 +1886,10 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" t="s">
         <v>363</v>
-      </c>
-      <c r="J3" t="s">
-        <v>364</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -1919,16 +1901,16 @@
         <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="R3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="S3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
@@ -1948,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1958,10 +1940,10 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" t="s">
         <v>365</v>
-      </c>
-      <c r="J4" t="s">
-        <v>366</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -1973,16 +1955,16 @@
         <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="R4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="S4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="T4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -2002,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -2012,10 +1994,10 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" t="s">
         <v>355</v>
-      </c>
-      <c r="J5" t="s">
-        <v>356</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2027,16 +2009,16 @@
         <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="R5" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="S5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="T5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
@@ -2056,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -2066,10 +2048,10 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J6" t="s">
         <v>367</v>
-      </c>
-      <c r="J6" t="s">
-        <v>368</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2081,16 +2063,16 @@
         <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="R6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="S6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
@@ -2110,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -2120,10 +2102,10 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J7" t="s">
         <v>367</v>
-      </c>
-      <c r="J7" t="s">
-        <v>368</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -2135,16 +2117,16 @@
         <v>100</v>
       </c>
       <c r="Q7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="R7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="S7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
@@ -2164,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2174,10 +2156,10 @@
         <v>48</v>
       </c>
       <c r="I8" t="s">
+        <v>368</v>
+      </c>
+      <c r="J8" t="s">
         <v>369</v>
-      </c>
-      <c r="J8" t="s">
-        <v>370</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2189,16 +2171,16 @@
         <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="R8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="S8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="T8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -2218,7 +2200,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -2228,10 +2210,10 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J9" t="s">
         <v>371</v>
-      </c>
-      <c r="J9" t="s">
-        <v>372</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2243,16 +2225,16 @@
         <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="R9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="S9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="T9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
@@ -2272,7 +2254,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -2282,10 +2264,10 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10" t="s">
         <v>371</v>
-      </c>
-      <c r="J10" t="s">
-        <v>372</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -2297,16 +2279,16 @@
         <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="R10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="S10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="T10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
@@ -2326,7 +2308,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -2336,10 +2318,10 @@
         <v>51</v>
       </c>
       <c r="I11" t="s">
+        <v>356</v>
+      </c>
+      <c r="J11" t="s">
         <v>357</v>
-      </c>
-      <c r="J11" t="s">
-        <v>358</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -2351,16 +2333,16 @@
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="R11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="S11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="T11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
@@ -2380,7 +2362,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -2390,10 +2372,10 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J12" t="s">
         <v>373</v>
-      </c>
-      <c r="J12" t="s">
-        <v>374</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2405,16 +2387,16 @@
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="S12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="T12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
@@ -2434,7 +2416,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -2444,10 +2426,10 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J13" t="s">
         <v>373</v>
-      </c>
-      <c r="J13" t="s">
-        <v>374</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2459,16 +2441,16 @@
         <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R13" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="S13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="T13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
@@ -2488,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -2498,10 +2480,10 @@
         <v>54</v>
       </c>
       <c r="I14" t="s">
+        <v>374</v>
+      </c>
+      <c r="J14" t="s">
         <v>375</v>
-      </c>
-      <c r="J14" t="s">
-        <v>376</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -2513,16 +2495,16 @@
         <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="R14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="S14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="T14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
@@ -2542,7 +2524,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2552,10 +2534,10 @@
         <v>55</v>
       </c>
       <c r="I15" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" t="s">
         <v>359</v>
-      </c>
-      <c r="J15" t="s">
-        <v>360</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -2567,21 +2549,21 @@
         <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R15" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="S15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="T15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -2596,20 +2578,20 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Sugarcane_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Sunflower_rf in ton C/ha</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
       </c>
       <c r="I16" t="s">
+        <v>376</v>
+      </c>
+      <c r="J16" t="s">
         <v>377</v>
-      </c>
-      <c r="J16" t="s">
-        <v>378</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -2621,21 +2603,21 @@
         <v>100</v>
       </c>
       <c r="Q16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R16" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="S16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="T16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -2650,20 +2632,20 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Sunflower_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Sweet potato_rf in ton C/ha</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J17" t="s">
         <v>379</v>
-      </c>
-      <c r="J17" t="s">
-        <v>380</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2675,21 +2657,21 @@
         <v>100</v>
       </c>
       <c r="Q17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R17" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="S17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="T17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -2704,20 +2686,20 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Sweet potato_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Tobacco_rf in ton C/ha</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
       </c>
       <c r="I18" t="s">
+        <v>380</v>
+      </c>
+      <c r="J18" t="s">
         <v>381</v>
-      </c>
-      <c r="J18" t="s">
-        <v>382</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2729,21 +2711,21 @@
         <v>100</v>
       </c>
       <c r="Q18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="S18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="T18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -2758,20 +2740,20 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Tobacco_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Tomato_rf in ton C/ha</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
       </c>
       <c r="I19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J19" t="s">
         <v>383</v>
-      </c>
-      <c r="J19" t="s">
-        <v>384</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2783,21 +2765,21 @@
         <v>100</v>
       </c>
       <c r="Q19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="R19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="S19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="T19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -2806,26 +2788,26 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Tomato_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Wheat_rf_ron in ton C/ha</v>
       </c>
       <c r="H20" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
+        <v>384</v>
+      </c>
+      <c r="J20" t="s">
         <v>385</v>
-      </c>
-      <c r="J20" t="s">
-        <v>386</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2837,16 +2819,16 @@
         <v>100</v>
       </c>
       <c r="Q20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="R20" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="S20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="T20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
@@ -2860,26 +2842,26 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Wheat_rf_ron in ton C/ha</v>
+        <v>RothC results for year 2030 for Wheat_rf_roff in ton C/ha</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2891,74 +2873,20 @@
         <v>100</v>
       </c>
       <c r="Q21" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="R21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="S21" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="T21" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Wheat_rf_roff in ton C/ha</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" t="s">
-        <v>387</v>
-      </c>
-      <c r="J22" t="s">
-        <v>388</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>100</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>420</v>
-      </c>
-      <c r="R22" t="s">
-        <v>436</v>
-      </c>
-      <c r="S22" t="s">
-        <v>404</v>
-      </c>
-      <c r="T22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T22" xr:uid="{A1821CC5-2977-4A1A-B60B-8C004F05C4AF}"/>
+  <autoFilter ref="A1:T21" xr:uid="{A1821CC5-2977-4A1A-B60B-8C004F05C4AF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2980,53 +2908,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3037,7 +2965,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -3051,13 +2979,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -3068,13 +2996,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -3082,53 +3010,53 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3136,10 +3064,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -3150,19 +3078,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3170,16 +3098,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3187,10 +3115,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -3201,36 +3129,36 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
       <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3238,10 +3166,10 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
         <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -3252,19 +3180,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
         <v>109</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>110</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3272,16 +3200,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
         <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -3289,16 +3217,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -3309,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -3326,7 +3254,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -3340,33 +3268,33 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -3374,10 +3302,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -3391,10 +3319,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
         <v>128</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3408,16 +3336,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>131</v>
       </c>
-      <c r="D26" t="s">
-        <v>132</v>
-      </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -3425,10 +3353,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -3442,10 +3370,10 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -3462,13 +3390,13 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3489,5284 +3417,5284 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
         <v>139</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s">
         <v>143</v>
       </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" t="s">
         <v>145</v>
       </c>
-      <c r="R1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" t="s">
-        <v>153</v>
-      </c>
-      <c r="U1" t="s">
-        <v>154</v>
-      </c>
-      <c r="W1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>146</v>
-      </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
         <v>148</v>
       </c>
-      <c r="I2" t="s">
-        <v>149</v>
-      </c>
       <c r="J2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" t="s">
         <v>145</v>
       </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S2" t="s">
         <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W2" t="s">
         <v>154</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" t="s">
         <v>155</v>
-      </c>
-      <c r="X2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>156</v>
       </c>
       <c r="Z2" t="s">
         <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" t="s">
         <v>160</v>
       </c>
-      <c r="S3" t="s">
-        <v>161</v>
-      </c>
       <c r="T3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W3" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" t="s">
         <v>159</v>
       </c>
-      <c r="X3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>160</v>
       </c>
-      <c r="Z3" t="s">
-        <v>161</v>
-      </c>
       <c r="AA3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" t="s">
         <v>160</v>
       </c>
-      <c r="L4" t="s">
-        <v>161</v>
-      </c>
       <c r="M4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R4" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" t="s">
         <v>165</v>
       </c>
-      <c r="S4" t="s">
-        <v>166</v>
-      </c>
       <c r="T4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y4" t="s">
         <v>164</v>
       </c>
-      <c r="X4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" t="s">
-        <v>166</v>
-      </c>
       <c r="AA4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>156</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" t="s">
         <v>165</v>
       </c>
-      <c r="L5" t="s">
-        <v>166</v>
-      </c>
       <c r="M5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S5" t="s">
         <v>170</v>
       </c>
-      <c r="S5" t="s">
-        <v>171</v>
-      </c>
       <c r="T5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W5" t="s">
+        <v>168</v>
+      </c>
+      <c r="X5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y5" t="s">
         <v>169</v>
       </c>
-      <c r="X5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>170</v>
       </c>
-      <c r="Z5" t="s">
-        <v>171</v>
-      </c>
       <c r="AA5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
         <v>170</v>
       </c>
-      <c r="L6" t="s">
-        <v>171</v>
-      </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W6" t="s">
+        <v>173</v>
+      </c>
+      <c r="X6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" t="s">
         <v>174</v>
       </c>
-      <c r="X6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>175</v>
-      </c>
       <c r="Z6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W7" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y7" t="s">
         <v>178</v>
       </c>
-      <c r="X7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>179</v>
-      </c>
       <c r="Z7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>160</v>
       </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W8" t="s">
+        <v>181</v>
+      </c>
+      <c r="X8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y8" t="s">
         <v>182</v>
       </c>
-      <c r="X8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>183</v>
-      </c>
       <c r="Z8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
         <v>160</v>
       </c>
-      <c r="D9" t="s">
-        <v>161</v>
-      </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W9" t="s">
+        <v>185</v>
+      </c>
+      <c r="X9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y9" t="s">
         <v>186</v>
       </c>
-      <c r="X9" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>187</v>
-      </c>
       <c r="Z9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
         <v>160</v>
       </c>
-      <c r="D10" t="s">
-        <v>161</v>
-      </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W10" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y10" t="s">
         <v>190</v>
-      </c>
-      <c r="X10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>191</v>
       </c>
       <c r="Z10" t="s">
         <v>22</v>
       </c>
       <c r="AA10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
         <v>164</v>
       </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>165</v>
       </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R11" t="s">
+        <v>194</v>
+      </c>
+      <c r="S11" t="s">
         <v>195</v>
       </c>
-      <c r="S11" t="s">
-        <v>196</v>
-      </c>
       <c r="T11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W11" t="s">
+        <v>193</v>
+      </c>
+      <c r="X11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y11" t="s">
         <v>194</v>
       </c>
-      <c r="X11" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>195</v>
       </c>
-      <c r="Z11" t="s">
-        <v>196</v>
-      </c>
       <c r="AA11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" t="s">
         <v>195</v>
       </c>
-      <c r="L12" t="s">
-        <v>196</v>
-      </c>
       <c r="M12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S12" t="s">
         <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W12" t="s">
+        <v>198</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
         <v>199</v>
-      </c>
-      <c r="X12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>200</v>
       </c>
       <c r="Z12" t="s">
         <v>23</v>
       </c>
       <c r="AA12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" t="s">
         <v>165</v>
       </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R13" t="s">
+        <v>203</v>
+      </c>
+      <c r="S13" t="s">
         <v>204</v>
       </c>
-      <c r="S13" t="s">
-        <v>205</v>
-      </c>
       <c r="T13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W13" t="s">
+        <v>202</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
         <v>203</v>
       </c>
-      <c r="X13" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>204</v>
       </c>
-      <c r="Z13" t="s">
-        <v>205</v>
-      </c>
       <c r="AA13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
         <v>169</v>
       </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>170</v>
       </c>
-      <c r="D14" t="s">
-        <v>171</v>
-      </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" t="s">
         <v>204</v>
       </c>
-      <c r="L14" t="s">
-        <v>205</v>
-      </c>
       <c r="M14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S14" t="s">
         <v>24</v>
       </c>
       <c r="T14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W14" t="s">
+        <v>207</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
         <v>208</v>
-      </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>209</v>
       </c>
       <c r="Z14" t="s">
         <v>24</v>
       </c>
       <c r="AA14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s">
         <v>170</v>
       </c>
-      <c r="D15" t="s">
-        <v>171</v>
-      </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L15" t="s">
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R15" t="s">
+        <v>212</v>
+      </c>
+      <c r="S15" t="s">
         <v>213</v>
       </c>
-      <c r="S15" t="s">
-        <v>214</v>
-      </c>
       <c r="T15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W15" t="s">
+        <v>211</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
         <v>212</v>
       </c>
-      <c r="X15" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>213</v>
       </c>
-      <c r="Z15" t="s">
-        <v>214</v>
-      </c>
       <c r="AA15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
-        <v>171</v>
-      </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" t="s">
         <v>213</v>
       </c>
-      <c r="L16" t="s">
-        <v>214</v>
-      </c>
       <c r="M16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R16" t="s">
+        <v>217</v>
+      </c>
+      <c r="S16" t="s">
         <v>218</v>
       </c>
-      <c r="S16" t="s">
-        <v>219</v>
-      </c>
       <c r="T16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W16" t="s">
+        <v>216</v>
+      </c>
+      <c r="X16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y16" t="s">
         <v>217</v>
       </c>
-      <c r="X16" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>218</v>
       </c>
-      <c r="Z16" t="s">
-        <v>219</v>
-      </c>
       <c r="AA16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
-      </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17" t="s">
         <v>218</v>
       </c>
-      <c r="L17" t="s">
-        <v>219</v>
-      </c>
       <c r="M17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R17" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" t="s">
         <v>223</v>
       </c>
-      <c r="S17" t="s">
-        <v>224</v>
-      </c>
       <c r="T17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W17" t="s">
+        <v>221</v>
+      </c>
+      <c r="X17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y17" t="s">
         <v>222</v>
       </c>
-      <c r="X17" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>223</v>
       </c>
-      <c r="Z17" t="s">
-        <v>224</v>
-      </c>
       <c r="AA17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" t="s">
         <v>223</v>
       </c>
-      <c r="L18" t="s">
-        <v>224</v>
-      </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W18" t="s">
+        <v>226</v>
+      </c>
+      <c r="X18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y18" t="s">
         <v>227</v>
       </c>
-      <c r="X18" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>228</v>
-      </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S19" t="s">
         <v>25</v>
       </c>
       <c r="T19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W19" t="s">
+        <v>230</v>
+      </c>
+      <c r="X19" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y19" t="s">
         <v>231</v>
-      </c>
-      <c r="X19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>232</v>
       </c>
       <c r="Z19" t="s">
         <v>25</v>
       </c>
       <c r="AA19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
         <v>178</v>
       </c>
-      <c r="B20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R20" t="s">
+        <v>235</v>
+      </c>
+      <c r="S20" t="s">
         <v>236</v>
       </c>
-      <c r="S20" t="s">
-        <v>237</v>
-      </c>
       <c r="T20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W20" t="s">
+        <v>234</v>
+      </c>
+      <c r="X20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y20" t="s">
         <v>235</v>
       </c>
-      <c r="X20" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>236</v>
       </c>
-      <c r="Z20" t="s">
-        <v>237</v>
-      </c>
       <c r="AA20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" t="s">
         <v>236</v>
       </c>
-      <c r="L21" t="s">
-        <v>237</v>
-      </c>
       <c r="M21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R21" t="s">
+        <v>240</v>
+      </c>
+      <c r="S21" t="s">
         <v>241</v>
       </c>
-      <c r="S21" t="s">
-        <v>242</v>
-      </c>
       <c r="T21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W21" t="s">
+        <v>239</v>
+      </c>
+      <c r="X21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y21" t="s">
         <v>240</v>
       </c>
-      <c r="X21" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>241</v>
       </c>
-      <c r="Z21" t="s">
-        <v>242</v>
-      </c>
       <c r="AA21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
+        <v>240</v>
+      </c>
+      <c r="L22" t="s">
         <v>241</v>
       </c>
-      <c r="L22" t="s">
-        <v>242</v>
-      </c>
       <c r="M22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W22" t="s">
+        <v>244</v>
+      </c>
+      <c r="X22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y22" t="s">
         <v>245</v>
       </c>
-      <c r="X22" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>246</v>
-      </c>
       <c r="Z22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
         <v>182</v>
       </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>183</v>
-      </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R23" t="s">
+        <v>249</v>
+      </c>
+      <c r="S23" t="s">
         <v>250</v>
       </c>
-      <c r="S23" t="s">
-        <v>251</v>
-      </c>
       <c r="T23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W23" t="s">
+        <v>248</v>
+      </c>
+      <c r="X23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y23" t="s">
         <v>249</v>
       </c>
-      <c r="X23" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>250</v>
       </c>
-      <c r="Z23" t="s">
-        <v>251</v>
-      </c>
       <c r="AA23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L24" t="s">
         <v>250</v>
       </c>
-      <c r="L24" t="s">
-        <v>251</v>
-      </c>
       <c r="M24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R24" t="s">
+        <v>254</v>
+      </c>
+      <c r="S24" t="s">
         <v>255</v>
       </c>
-      <c r="S24" t="s">
-        <v>256</v>
-      </c>
       <c r="T24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W24" t="s">
+        <v>253</v>
+      </c>
+      <c r="X24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y24" t="s">
         <v>254</v>
       </c>
-      <c r="X24" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>255</v>
       </c>
-      <c r="Z24" t="s">
-        <v>256</v>
-      </c>
       <c r="AA24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s">
         <v>255</v>
       </c>
-      <c r="L25" t="s">
-        <v>256</v>
-      </c>
       <c r="M25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R25" t="s">
+        <v>259</v>
+      </c>
+      <c r="S25" t="s">
         <v>260</v>
       </c>
-      <c r="S25" t="s">
-        <v>261</v>
-      </c>
       <c r="T25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W25" t="s">
+        <v>258</v>
+      </c>
+      <c r="X25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y25" t="s">
         <v>259</v>
       </c>
-      <c r="X25" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>260</v>
       </c>
-      <c r="Z25" t="s">
-        <v>261</v>
-      </c>
       <c r="AA25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
         <v>186</v>
       </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>187</v>
-      </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
         <v>260</v>
       </c>
-      <c r="L26" t="s">
-        <v>261</v>
-      </c>
       <c r="M26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S26" t="s">
         <v>26</v>
       </c>
       <c r="T26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y26" t="s">
         <v>264</v>
-      </c>
-      <c r="X26" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>265</v>
       </c>
       <c r="Z26" t="s">
         <v>26</v>
       </c>
       <c r="AA26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
       </c>
       <c r="T27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y27" t="s">
         <v>268</v>
-      </c>
-      <c r="X27" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>269</v>
       </c>
       <c r="Z27" t="s">
         <v>27</v>
       </c>
       <c r="AA27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
         <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R28" t="s">
+        <v>272</v>
+      </c>
+      <c r="S28" t="s">
         <v>273</v>
       </c>
-      <c r="S28" t="s">
-        <v>274</v>
-      </c>
       <c r="T28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y28" t="s">
         <v>272</v>
       </c>
-      <c r="X28" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>273</v>
       </c>
-      <c r="Z28" t="s">
-        <v>274</v>
-      </c>
       <c r="AA28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
         <v>190</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" t="s">
-        <v>191</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
         <v>273</v>
       </c>
-      <c r="L29" t="s">
-        <v>274</v>
-      </c>
       <c r="M29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R29" t="s">
+        <v>277</v>
+      </c>
+      <c r="S29" t="s">
         <v>278</v>
       </c>
-      <c r="S29" t="s">
-        <v>279</v>
-      </c>
       <c r="T29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y29" t="s">
         <v>277</v>
       </c>
-      <c r="X29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>278</v>
       </c>
-      <c r="Z29" t="s">
-        <v>279</v>
-      </c>
       <c r="AA29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
         <v>278</v>
       </c>
-      <c r="L30" t="s">
-        <v>279</v>
-      </c>
       <c r="M30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S30" t="s">
         <v>28</v>
       </c>
       <c r="T30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W30" t="s">
+        <v>281</v>
+      </c>
+      <c r="X30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y30" t="s">
         <v>282</v>
-      </c>
-      <c r="X30" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>283</v>
       </c>
       <c r="Z30" t="s">
         <v>28</v>
       </c>
       <c r="AA30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s">
         <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R31" t="s">
+        <v>286</v>
+      </c>
+      <c r="S31" t="s">
         <v>287</v>
       </c>
-      <c r="S31" t="s">
-        <v>288</v>
-      </c>
       <c r="T31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y31" t="s">
         <v>286</v>
       </c>
-      <c r="X31" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>287</v>
       </c>
-      <c r="Z31" t="s">
-        <v>288</v>
-      </c>
       <c r="AA31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
         <v>194</v>
       </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>195</v>
       </c>
-      <c r="D32" t="s">
-        <v>196</v>
-      </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
         <v>287</v>
       </c>
-      <c r="L32" t="s">
-        <v>288</v>
-      </c>
       <c r="M32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R32" t="s">
+        <v>291</v>
+      </c>
+      <c r="S32" t="s">
         <v>292</v>
       </c>
-      <c r="S32" t="s">
-        <v>293</v>
-      </c>
       <c r="T32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W32" t="s">
+        <v>290</v>
+      </c>
+      <c r="X32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y32" t="s">
         <v>291</v>
       </c>
-      <c r="X32" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>292</v>
       </c>
-      <c r="Z32" t="s">
-        <v>293</v>
-      </c>
       <c r="AA32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" t="s">
         <v>195</v>
       </c>
-      <c r="D33" t="s">
-        <v>196</v>
-      </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
         <v>292</v>
       </c>
-      <c r="L33" t="s">
-        <v>293</v>
-      </c>
       <c r="M33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S33" t="s">
         <v>29</v>
       </c>
       <c r="T33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y33" t="s">
         <v>296</v>
-      </c>
-      <c r="X33" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>297</v>
       </c>
       <c r="Z33" t="s">
         <v>29</v>
       </c>
       <c r="AA33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="s">
         <v>195</v>
       </c>
-      <c r="D34" t="s">
-        <v>196</v>
-      </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
         <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s">
         <v>30</v>
       </c>
       <c r="T34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W34" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y34" t="s">
         <v>300</v>
-      </c>
-      <c r="X34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>301</v>
       </c>
       <c r="Z34" t="s">
         <v>30</v>
       </c>
       <c r="AA34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
         <v>199</v>
-      </c>
-      <c r="B35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" t="s">
-        <v>200</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
         <v>30</v>
       </c>
       <c r="M35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W35" t="s">
+        <v>303</v>
+      </c>
+      <c r="X35" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y35" t="s">
         <v>304</v>
       </c>
-      <c r="X35" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>305</v>
-      </c>
       <c r="Z35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
       </c>
       <c r="T36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y36" t="s">
         <v>308</v>
-      </c>
-      <c r="X36" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>309</v>
       </c>
       <c r="Z36" t="s">
         <v>32</v>
       </c>
       <c r="AA36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S37" t="s">
         <v>33</v>
       </c>
       <c r="T37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W37" t="s">
+        <v>311</v>
+      </c>
+      <c r="X37" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y37" t="s">
         <v>312</v>
-      </c>
-      <c r="X37" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>313</v>
       </c>
       <c r="Z37" t="s">
         <v>33</v>
       </c>
       <c r="AA37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
         <v>203</v>
       </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>204</v>
       </c>
-      <c r="D38" t="s">
-        <v>205</v>
-      </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s">
         <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W38" t="s">
+        <v>315</v>
+      </c>
+      <c r="X38" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y38" t="s">
         <v>316</v>
       </c>
-      <c r="X38" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>317</v>
-      </c>
       <c r="Z38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" t="s">
         <v>204</v>
       </c>
-      <c r="D39" t="s">
-        <v>205</v>
-      </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R39" t="s">
+        <v>320</v>
+      </c>
+      <c r="S39" t="s">
         <v>321</v>
       </c>
-      <c r="S39" t="s">
-        <v>322</v>
-      </c>
       <c r="T39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W39" t="s">
+        <v>319</v>
+      </c>
+      <c r="X39" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y39" t="s">
         <v>320</v>
       </c>
-      <c r="X39" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>321</v>
       </c>
-      <c r="Z39" t="s">
-        <v>322</v>
-      </c>
       <c r="AA39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
         <v>204</v>
       </c>
-      <c r="D40" t="s">
-        <v>205</v>
-      </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s">
         <v>321</v>
       </c>
-      <c r="L40" t="s">
-        <v>322</v>
-      </c>
       <c r="M40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y40" t="s">
         <v>325</v>
       </c>
-      <c r="X40" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>326</v>
-      </c>
       <c r="Z40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
         <v>208</v>
-      </c>
-      <c r="B41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" t="s">
-        <v>209</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S41" t="s">
         <v>35</v>
       </c>
       <c r="T41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W41" t="s">
+        <v>328</v>
+      </c>
+      <c r="X41" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y41" t="s">
         <v>329</v>
-      </c>
-      <c r="X41" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>330</v>
       </c>
       <c r="Z41" t="s">
         <v>35</v>
       </c>
       <c r="AA41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
         <v>35</v>
       </c>
       <c r="M42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S42" t="s">
         <v>36</v>
       </c>
       <c r="T42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y42" t="s">
         <v>333</v>
-      </c>
-      <c r="X42" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>334</v>
       </c>
       <c r="Z42" t="s">
         <v>36</v>
       </c>
       <c r="AA42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s">
         <v>36</v>
       </c>
       <c r="M43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R43" t="s">
+        <v>337</v>
+      </c>
+      <c r="S43" t="s">
         <v>338</v>
       </c>
-      <c r="S43" t="s">
-        <v>339</v>
-      </c>
       <c r="T43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W43" t="s">
+        <v>336</v>
+      </c>
+      <c r="X43" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y43" t="s">
         <v>337</v>
       </c>
-      <c r="X43" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>338</v>
       </c>
-      <c r="Z43" t="s">
-        <v>339</v>
-      </c>
       <c r="AA43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
         <v>212</v>
       </c>
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>213</v>
       </c>
-      <c r="D44" t="s">
-        <v>214</v>
-      </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
         <v>338</v>
       </c>
-      <c r="L44" t="s">
-        <v>339</v>
-      </c>
       <c r="M44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W44" t="s">
+        <v>341</v>
+      </c>
+      <c r="X44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y44" t="s">
         <v>342</v>
       </c>
-      <c r="X44" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>343</v>
-      </c>
       <c r="Z44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" t="s">
         <v>213</v>
       </c>
-      <c r="D45" t="s">
-        <v>214</v>
-      </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S45" t="s">
         <v>37</v>
       </c>
       <c r="T45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W45" t="s">
+        <v>345</v>
+      </c>
+      <c r="X45" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y45" t="s">
         <v>346</v>
-      </c>
-      <c r="X45" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>347</v>
       </c>
       <c r="Z45" t="s">
         <v>37</v>
       </c>
       <c r="AA45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" t="s">
         <v>213</v>
       </c>
-      <c r="D46" t="s">
-        <v>214</v>
-      </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s">
         <v>37</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R46" t="s">
+        <v>350</v>
+      </c>
+      <c r="S46" t="s">
         <v>351</v>
       </c>
-      <c r="S46" t="s">
-        <v>352</v>
-      </c>
       <c r="T46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W46" t="s">
+        <v>349</v>
+      </c>
+      <c r="X46" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y46" t="s">
         <v>350</v>
       </c>
-      <c r="X46" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>351</v>
       </c>
-      <c r="Z46" t="s">
-        <v>352</v>
-      </c>
       <c r="AA46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" t="s">
         <v>217</v>
       </c>
-      <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>218</v>
       </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
         <v>351</v>
       </c>
-      <c r="L47" t="s">
-        <v>352</v>
-      </c>
       <c r="M47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" t="s">
         <v>218</v>
       </c>
-      <c r="D48" t="s">
-        <v>219</v>
-      </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
         <v>218</v>
       </c>
-      <c r="D49" t="s">
-        <v>219</v>
-      </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
         <v>222</v>
       </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>223</v>
       </c>
-      <c r="D50" t="s">
-        <v>224</v>
-      </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" t="s">
         <v>223</v>
       </c>
-      <c r="D51" t="s">
-        <v>224</v>
-      </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" t="s">
         <v>223</v>
       </c>
-      <c r="D52" t="s">
-        <v>224</v>
-      </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
         <v>227</v>
       </c>
-      <c r="B53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" t="s">
-        <v>228</v>
-      </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
         <v>231</v>
-      </c>
-      <c r="B56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
-        <v>232</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
         <v>235</v>
       </c>
-      <c r="B59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="D59" t="s">
-        <v>237</v>
-      </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
         <v>236</v>
       </c>
-      <c r="D60" t="s">
-        <v>237</v>
-      </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" t="s">
         <v>236</v>
       </c>
-      <c r="D61" t="s">
-        <v>237</v>
-      </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
         <v>240</v>
       </c>
-      <c r="B62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>241</v>
       </c>
-      <c r="D62" t="s">
-        <v>242</v>
-      </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" t="s">
         <v>241</v>
       </c>
-      <c r="D63" t="s">
-        <v>242</v>
-      </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" t="s">
         <v>241</v>
       </c>
-      <c r="D64" t="s">
-        <v>242</v>
-      </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
         <v>245</v>
       </c>
-      <c r="B65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" t="s">
-        <v>246</v>
-      </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
         <v>249</v>
       </c>
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>250</v>
       </c>
-      <c r="D68" t="s">
-        <v>251</v>
-      </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" t="s">
         <v>250</v>
       </c>
-      <c r="D69" t="s">
-        <v>251</v>
-      </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" t="s">
         <v>250</v>
       </c>
-      <c r="D70" t="s">
-        <v>251</v>
-      </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
         <v>254</v>
       </c>
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>255</v>
       </c>
-      <c r="D71" t="s">
-        <v>256</v>
-      </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" t="s">
         <v>255</v>
       </c>
-      <c r="D72" t="s">
-        <v>256</v>
-      </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" t="s">
         <v>255</v>
       </c>
-      <c r="D73" t="s">
-        <v>256</v>
-      </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
         <v>259</v>
       </c>
-      <c r="B74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>260</v>
       </c>
-      <c r="D74" t="s">
-        <v>261</v>
-      </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" t="s">
         <v>260</v>
       </c>
-      <c r="D75" t="s">
-        <v>261</v>
-      </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" t="s">
         <v>260</v>
       </c>
-      <c r="D76" t="s">
-        <v>261</v>
-      </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
         <v>264</v>
-      </c>
-      <c r="B77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" t="s">
-        <v>265</v>
       </c>
       <c r="D77" t="s">
         <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
         <v>268</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" t="s">
-        <v>269</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" t="s">
         <v>272</v>
       </c>
-      <c r="B83" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>273</v>
       </c>
-      <c r="D83" t="s">
-        <v>274</v>
-      </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" t="s">
         <v>273</v>
       </c>
-      <c r="D84" t="s">
-        <v>274</v>
-      </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
         <v>273</v>
       </c>
-      <c r="D85" t="s">
-        <v>274</v>
-      </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" t="s">
         <v>277</v>
       </c>
-      <c r="B86" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>278</v>
       </c>
-      <c r="D86" t="s">
-        <v>279</v>
-      </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
         <v>278</v>
       </c>
-      <c r="D87" t="s">
-        <v>279</v>
-      </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
         <v>278</v>
       </c>
-      <c r="D88" t="s">
-        <v>279</v>
-      </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s">
         <v>282</v>
-      </c>
-      <c r="B89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" t="s">
-        <v>283</v>
       </c>
       <c r="D89" t="s">
         <v>28</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
         <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" t="s">
         <v>286</v>
       </c>
-      <c r="B92" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>287</v>
       </c>
-      <c r="D92" t="s">
-        <v>288</v>
-      </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" t="s">
         <v>287</v>
       </c>
-      <c r="D93" t="s">
-        <v>288</v>
-      </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" t="s">
         <v>287</v>
       </c>
-      <c r="D94" t="s">
-        <v>288</v>
-      </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s">
         <v>291</v>
       </c>
-      <c r="B95" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>292</v>
       </c>
-      <c r="D95" t="s">
-        <v>293</v>
-      </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" t="s">
         <v>292</v>
       </c>
-      <c r="D96" t="s">
-        <v>293</v>
-      </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" t="s">
         <v>292</v>
       </c>
-      <c r="D97" t="s">
-        <v>293</v>
-      </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
         <v>296</v>
-      </c>
-      <c r="B98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" t="s">
-        <v>297</v>
       </c>
       <c r="D98" t="s">
         <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D99" t="s">
         <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D100" t="s">
         <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s">
         <v>300</v>
-      </c>
-      <c r="B101" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" t="s">
-        <v>301</v>
       </c>
       <c r="D101" t="s">
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D102" t="s">
         <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D103" t="s">
         <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s">
         <v>304</v>
       </c>
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" t="s">
-        <v>305</v>
-      </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s">
         <v>308</v>
-      </c>
-      <c r="B107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" t="s">
-        <v>309</v>
       </c>
       <c r="D107" t="s">
         <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D108" t="s">
         <v>32</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" t="s">
         <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
         <v>312</v>
-      </c>
-      <c r="B110" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" t="s">
-        <v>313</v>
       </c>
       <c r="D110" t="s">
         <v>33</v>
       </c>
       <c r="E110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" t="s">
         <v>33</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
         <v>33</v>
       </c>
       <c r="E112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" t="s">
         <v>316</v>
       </c>
-      <c r="B113" t="s">
-        <v>145</v>
-      </c>
-      <c r="C113" t="s">
-        <v>317</v>
-      </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s">
         <v>320</v>
       </c>
-      <c r="B116" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>321</v>
       </c>
-      <c r="D116" t="s">
-        <v>322</v>
-      </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" t="s">
         <v>321</v>
       </c>
-      <c r="D117" t="s">
-        <v>322</v>
-      </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" t="s">
         <v>321</v>
       </c>
-      <c r="D118" t="s">
-        <v>322</v>
-      </c>
       <c r="E118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>324</v>
+      </c>
+      <c r="B119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" t="s">
         <v>325</v>
       </c>
-      <c r="B119" t="s">
-        <v>145</v>
-      </c>
-      <c r="C119" t="s">
-        <v>326</v>
-      </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>328</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
         <v>329</v>
-      </c>
-      <c r="B122" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" t="s">
-        <v>330</v>
       </c>
       <c r="D122" t="s">
         <v>35</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D123" t="s">
         <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>332</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" t="s">
         <v>333</v>
-      </c>
-      <c r="B125" t="s">
-        <v>145</v>
-      </c>
-      <c r="C125" t="s">
-        <v>334</v>
       </c>
       <c r="D125" t="s">
         <v>36</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D126" t="s">
         <v>36</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
         <v>36</v>
       </c>
       <c r="E127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" t="s">
         <v>337</v>
       </c>
-      <c r="B128" t="s">
-        <v>145</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>338</v>
       </c>
-      <c r="D128" t="s">
-        <v>339</v>
-      </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C129" t="s">
+        <v>337</v>
+      </c>
+      <c r="D129" t="s">
         <v>338</v>
       </c>
-      <c r="D129" t="s">
-        <v>339</v>
-      </c>
       <c r="E129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" t="s">
         <v>338</v>
       </c>
-      <c r="D130" t="s">
-        <v>339</v>
-      </c>
       <c r="E130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>341</v>
+      </c>
+      <c r="B131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s">
         <v>342</v>
       </c>
-      <c r="B131" t="s">
-        <v>145</v>
-      </c>
-      <c r="C131" t="s">
-        <v>343</v>
-      </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" t="s">
         <v>346</v>
-      </c>
-      <c r="B134" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" t="s">
-        <v>347</v>
       </c>
       <c r="D134" t="s">
         <v>37</v>
       </c>
       <c r="E134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D135" t="s">
         <v>37</v>
       </c>
       <c r="E135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
       </c>
       <c r="E136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>349</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s">
         <v>350</v>
       </c>
-      <c r="B137" t="s">
-        <v>145</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>351</v>
       </c>
-      <c r="D137" t="s">
-        <v>352</v>
-      </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
+        <v>350</v>
+      </c>
+      <c r="D138" t="s">
         <v>351</v>
       </c>
-      <c r="D138" t="s">
-        <v>352</v>
-      </c>
       <c r="E138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
+        <v>350</v>
+      </c>
+      <c r="D139" t="s">
         <v>351</v>
       </c>
-      <c r="D139" t="s">
-        <v>352</v>
-      </c>
       <c r="E139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/crops/rothc_support/annual_crops_rothc_scenarios_rainfed.xlsx
+++ b/data/crops/rothc_support/annual_crops_rothc_scenarios_rainfed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldwildlifefund-my.sharepoint.com/personal/cristobal_loyola_wwfus_org/Documents/Documents/203. Python projects/SBTN_Test/data/crops/rothc_support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{170725B8-9B34-4153-8604-E86F3A22CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB114950-BF2F-40A4-9735-54DFCD26AA29}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{170725B8-9B34-4153-8604-E86F3A22CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE2C0D5-7154-4C18-8E92-607FC8F424AE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6F94B64D-243B-49DA-AE87-045B34BFAB0F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="433">
   <si>
     <t>crop_name</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t>practices_string_id</t>
+  </si>
+  <si>
+    <t>force_new_file</t>
   </si>
 </sst>
 </file>
@@ -1728,9 +1731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1821CC5-2977-4A1A-B60B-8C004F05C4AF}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1743,7 +1748,7 @@
     <col min="8" max="8" width="63.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1804,8 +1809,11 @@
       <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1858,8 +1866,11 @@
       <c r="T2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1912,8 +1923,11 @@
       <c r="T3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1966,8 +1980,11 @@
       <c r="T4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2020,8 +2037,11 @@
       <c r="T5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2074,8 +2094,11 @@
       <c r="T6" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2151,11 @@
       <c r="T7" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2182,8 +2208,11 @@
       <c r="T8" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2236,8 +2265,11 @@
       <c r="T9" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2290,8 +2322,11 @@
       <c r="T10" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2344,8 +2379,11 @@
       <c r="T11" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2398,8 +2436,11 @@
       <c r="T12" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2452,8 +2493,11 @@
       <c r="T13" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2506,8 +2550,11 @@
       <c r="T14" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2560,8 +2607,11 @@
       <c r="T15" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2614,8 +2664,11 @@
       <c r="T16" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2668,8 +2721,11 @@
       <c r="T17" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2722,8 +2778,11 @@
       <c r="T18" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2776,8 +2835,11 @@
       <c r="T19" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2830,8 +2892,11 @@
       <c r="T20" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2883,6 +2948,9 @@
       </c>
       <c r="T21" t="s">
         <v>415</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/crops/rothc_support/annual_crops_rothc_scenarios_rainfed.xlsx
+++ b/data/crops/rothc_support/annual_crops_rothc_scenarios_rainfed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldwildlifefund-my.sharepoint.com/personal/cristobal_loyola_wwfus_org/Documents/Documents/203. Python projects/SBTN_Test/data/crops/rothc_support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{170725B8-9B34-4153-8604-E86F3A22CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE2C0D5-7154-4C18-8E92-607FC8F424AE}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{170725B8-9B34-4153-8604-E86F3A22CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F799DE01-A2F3-4C93-A656-C7EF378CA021}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6F94B64D-243B-49DA-AE87-045B34BFAB0F}"/>
   </bookViews>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H20" sqref="H20:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2394,7 +2394,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>14</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Sorghum_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Sorghum_rf_ron in ton C/ha</v>
       </c>
       <c r="H12" t="s">
         <v>52</v>
@@ -2437,7 +2437,7 @@
         <v>408</v>
       </c>
       <c r="U12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -2451,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>RothC results for year 2030 for Sorghum_rf in ton C/ha</v>
+        <v>RothC results for year 2030 for Sorghum_rf_roff in ton C/ha</v>
       </c>
       <c r="H13" t="s">
         <v>53</v>
@@ -2494,7 +2494,7 @@
         <v>408</v>
       </c>
       <c r="U13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -2608,7 +2608,7 @@
         <v>410</v>
       </c>
       <c r="U15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -2665,7 +2665,7 @@
         <v>411</v>
       </c>
       <c r="U16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -2722,7 +2722,7 @@
         <v>412</v>
       </c>
       <c r="U17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -2779,7 +2779,7 @@
         <v>413</v>
       </c>
       <c r="U18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -2836,7 +2836,7 @@
         <v>414</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -2893,7 +2893,7 @@
         <v>415</v>
       </c>
       <c r="U20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -2950,7 +2950,7 @@
         <v>415</v>
       </c>
       <c r="U21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
